--- a/mes-plugins/mes-plugins-basic/src/main/resources/basic/public/resources/staffImportSchema_cn.xlsx
+++ b/mes-plugins/mes-plugins-basic/src/main/resources/basic/public/resources/staffImportSchema_cn.xlsx
@@ -1,93 +1,703 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liuho\Desktop\Import templates - 副本\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D77C2083-6B3E-41EC-9209-FEAF1F4B6D83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Arkusz1" sheetId="1" r:id="rId4"/>
+    <sheet name="Staff" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>qcadoo MES</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{2DEDFE7C-AAD4-4898-9621-E72AA0D077F6}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+            <charset val="238"/>
+          </rPr>
+          <t>qcadoo MES:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>必填数据</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+            <charset val="238"/>
+          </rPr>
+          <t>.</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>输入的员工编号必须唯一</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{0B12F2D2-D09B-4B99-A64D-D30BC3BCABCE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+          </rPr>
+          <t>qcadoo MES:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>必填数据</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+          </rPr>
+          <t>.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{809BEF56-71B0-4D82-B42C-6ED7C4C036C7}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+          </rPr>
+          <t>qcadoo MES:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>必填数据</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+          </rPr>
+          <t>.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{86711338-D086-4A10-B15E-07B2E3A4D6B5}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+          </rPr>
+          <t>qcadoo MES:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>选填数据</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+          </rPr>
+          <t>.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{F32405C5-ECD2-449E-98F3-4B0D94B798C1}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+          </rPr>
+          <t>qcadoo MES:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>选填数据</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+          </rPr>
+          <t>.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{3929F26F-7750-4102-9314-73A62E097AD6}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+          </rPr>
+          <t>qcadoo MES:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>选填数据</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+          </rPr>
+          <t xml:space="preserve">. </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>输入在</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+          </rPr>
+          <t>qcadoo</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>中定义的公司编号</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+          </rPr>
+          <t>.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{AFD56016-F4A3-4616-BA5C-8E2875F6F0DC}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+          </rPr>
+          <t>qcadoo MES:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>员工岗位</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+          </rPr>
+          <t xml:space="preserve">- </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>选填数据</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{60D2D6B5-5633-4EEA-B8D0-04B812D87241}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+            <charset val="238"/>
+          </rPr>
+          <t>qcadoo MES:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>选填数据</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+          </rPr>
+          <t xml:space="preserve">. </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>输入qcadoo中定义的部门编号</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+          </rPr>
+          <t>.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{2CEEED9E-F5E8-45F6-94CD-447885AA1464}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+            <charset val="238"/>
+          </rPr>
+          <t>qcadoo MES:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>选填数据</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+          </rPr>
+          <t xml:space="preserve">. </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>输入qcadoo中的工作站编号</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+          </rPr>
+          <t>.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{9A96DD52-1B13-48F5-9C2F-EF3EB9BB8F39}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+            <charset val="238"/>
+          </rPr>
+          <t>qcadoo MES:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>选填数据</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+          </rPr>
+          <t xml:space="preserve">. </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>输入qcadoo中定义的班组编号</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+          </rPr>
+          <t>.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>员工编号</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>名</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>姓</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>邮箱</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>电话</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作站</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>班组</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>所属公司</t>
   </si>
   <si>
-    <t>职位</t>
-  </si>
-  <si>
-    <t>部门</t>
-  </si>
-  <si>
-    <t>工作站</t>
-  </si>
-  <si>
-    <t>班组</t>
+    <t>岗位</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="13">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
     <font>
+      <b/>
       <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
-      <sz val="15"/>
+      <b/>
+      <sz val="11"/>
       <color indexed="8"/>
-      <name val="Calibri"/>
+      <name val="Helvetica Neue"/>
+      <charset val="238"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+      <charset val="238"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-        <bgColor auto="1"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -95,81 +705,381 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+  <cellXfs count="8">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0"/>
+  <dxfs count="13">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </horizontal>
+      </border>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1">
+    <tableStyle name="Styl tabeli 1" pivot="0" count="1" xr9:uid="{0BBE3408-488D-4072-BA9A-11309BF62912}">
+      <tableStyleElement type="wholeTable" dxfId="12"/>
+    </tableStyle>
+  </tableStyles>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{89469BBB-D4BE-4742-B19B-DAE3FFAF7502}" name="staffImportSchema_en" displayName="staffImportSchema_en" ref="A1:J2" insertRow="1" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:J2" xr:uid="{89469BBB-D4BE-4742-B19B-DAE3FFAF7502}"/>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{2ABAA54F-4934-4DFD-AE94-D9347C94B578}" name="员工编号" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{9AE0A74E-5436-4018-A36C-7645B337F59F}" name="名" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{A0B5450C-70FD-44DF-B709-92BC0F114208}" name="姓" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{59D59F1F-7290-4E29-9B0D-68A0915C3DAA}" name="邮箱" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{8150ABE6-F81B-4826-B0CD-8D55F15A04B1}" name="电话" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{25A490FB-5427-4BF9-B1EC-B3CA630E1E77}" name="所属公司" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{86412267-77ED-45AD-907C-3BDAEB9D72EF}" name="岗位" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{021C6675-3EE0-43EE-961F-35354070A5B6}" name="部门" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{39221DDE-FCCB-439C-BC68-935667CB8A48}" name="工作站" dataDxfId="1"/>
+    <tableColumn id="10" xr3:uid="{367C48C1-A0BA-4ACC-AD01-905A78EF0057}" name="班组" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="Styl tabeli 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Motyw pakietu Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
   <a:themeElements>
     <a:clrScheme name="Motyw pakietu Office">
       <a:dk1>
@@ -361,17 +1271,17 @@
         <a:solidFill>
           <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="25400" cap="flat">
+        <a:ln w="12700" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:round/>
+          <a:miter lim="800000"/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -390,7 +1300,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -399,10 +1309,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-            <a:sym typeface="Helvetica Neue"/>
+            <a:latin typeface="Calibri"/>
+            <a:ea typeface="Calibri"/>
+            <a:cs typeface="Calibri"/>
+            <a:sym typeface="Calibri"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -420,7 +1330,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -446,7 +1356,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -472,7 +1382,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -498,7 +1408,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -524,7 +1434,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -550,7 +1460,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -576,7 +1486,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -602,7 +1512,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -628,7 +1538,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -641,26 +1551,32 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
     <a:lnDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln w="25400" cap="flat">
+        <a:ln w="12700" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:round/>
+          <a:miter lim="800000"/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -679,7 +1595,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -705,7 +1621,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -731,7 +1647,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -757,7 +1673,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -783,7 +1699,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -809,7 +1725,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -835,7 +1751,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -861,7 +1777,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -887,7 +1803,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -913,7 +1829,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -926,9 +1842,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -942,7 +1864,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -961,7 +1883,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -970,10 +1892,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-            <a:sym typeface="Helvetica Neue"/>
+            <a:latin typeface="Calibri"/>
+            <a:ea typeface="Calibri"/>
+            <a:cs typeface="Calibri"/>
+            <a:sym typeface="Calibri"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -991,7 +1913,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1017,7 +1939,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1043,7 +1965,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1069,7 +1991,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1095,7 +2017,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1121,7 +2043,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1147,7 +2069,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1173,7 +2095,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1199,7 +2121,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1212,66 +2134,79 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <tabColor theme="9"/>
+  </sheetPr>
   <dimension ref="A1:J62"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15.95" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="15.9" customHeight="1"/>
   <cols>
-    <col min="1" max="2" width="16.8516" style="1" customWidth="1"/>
-    <col min="3" max="4" width="20.8516" style="1" customWidth="1"/>
-    <col min="5" max="10" width="16.8516" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.85156" style="1" customWidth="1"/>
+    <col min="1" max="2" width="16.8984375" style="2" customWidth="1"/>
+    <col min="3" max="4" width="20.8984375" style="2" customWidth="1"/>
+    <col min="5" max="10" width="16.8984375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="8.8984375" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="8.8984375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.95" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:10" ht="15.9" customHeight="1">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="I1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s" s="2">
+      <c r="J1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" ht="15.95" customHeight="1">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
+    </row>
+    <row r="2" spans="1:10" ht="15.9" customHeight="1">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
@@ -1280,7 +2215,7 @@
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
     </row>
-    <row r="3" ht="15.95" customHeight="1">
+    <row r="3" spans="1:10" ht="15.9" customHeight="1">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -1292,7 +2227,7 @@
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
     </row>
-    <row r="4" ht="15.95" customHeight="1">
+    <row r="4" spans="1:10" ht="15.9" customHeight="1">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -1304,7 +2239,7 @@
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
     </row>
-    <row r="5" ht="15.95" customHeight="1">
+    <row r="5" spans="1:10" ht="15.9" customHeight="1">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -1316,7 +2251,7 @@
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
     </row>
-    <row r="6" ht="15.95" customHeight="1">
+    <row r="6" spans="1:10" ht="15.9" customHeight="1">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -1328,7 +2263,7 @@
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
     </row>
-    <row r="7" ht="15.95" customHeight="1">
+    <row r="7" spans="1:10" ht="15.9" customHeight="1">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -1340,7 +2275,7 @@
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
     </row>
-    <row r="8" ht="15.95" customHeight="1">
+    <row r="8" spans="1:10" ht="15.9" customHeight="1">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -1352,7 +2287,7 @@
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
     </row>
-    <row r="9" ht="15.95" customHeight="1">
+    <row r="9" spans="1:10" ht="15.9" customHeight="1">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -1364,7 +2299,7 @@
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
     </row>
-    <row r="10" ht="15.95" customHeight="1">
+    <row r="10" spans="1:10" ht="15.9" customHeight="1">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -1376,7 +2311,7 @@
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
     </row>
-    <row r="11" ht="15.95" customHeight="1">
+    <row r="11" spans="1:10" ht="15.9" customHeight="1">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -1388,7 +2323,7 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
     </row>
-    <row r="12" ht="15.95" customHeight="1">
+    <row r="12" spans="1:10" ht="15.9" customHeight="1">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -1400,7 +2335,7 @@
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
     </row>
-    <row r="13" ht="15.95" customHeight="1">
+    <row r="13" spans="1:10" ht="15.9" customHeight="1">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -1412,7 +2347,7 @@
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
     </row>
-    <row r="14" ht="15.95" customHeight="1">
+    <row r="14" spans="1:10" ht="15.9" customHeight="1">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -1424,7 +2359,7 @@
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
     </row>
-    <row r="15" ht="15.95" customHeight="1">
+    <row r="15" spans="1:10" ht="15.9" customHeight="1">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -1436,7 +2371,7 @@
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
     </row>
-    <row r="16" ht="15.95" customHeight="1">
+    <row r="16" spans="1:10" ht="15.9" customHeight="1">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -1448,7 +2383,7 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
     </row>
-    <row r="17" ht="15.95" customHeight="1">
+    <row r="17" spans="1:10" ht="15.9" customHeight="1">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -1460,7 +2395,7 @@
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
     </row>
-    <row r="18" ht="15.95" customHeight="1">
+    <row r="18" spans="1:10" ht="15.9" customHeight="1">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -1472,7 +2407,7 @@
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
     </row>
-    <row r="19" ht="15.95" customHeight="1">
+    <row r="19" spans="1:10" ht="15.9" customHeight="1">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -1484,7 +2419,7 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
     </row>
-    <row r="20" ht="15.95" customHeight="1">
+    <row r="20" spans="1:10" ht="15.9" customHeight="1">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -1496,7 +2431,7 @@
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
     </row>
-    <row r="21" ht="15.95" customHeight="1">
+    <row r="21" spans="1:10" ht="15.9" customHeight="1">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -1508,7 +2443,7 @@
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
     </row>
-    <row r="22" ht="15.95" customHeight="1">
+    <row r="22" spans="1:10" ht="15.9" customHeight="1">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -1520,7 +2455,7 @@
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
     </row>
-    <row r="23" ht="15.95" customHeight="1">
+    <row r="23" spans="1:10" ht="15.9" customHeight="1">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -1532,7 +2467,7 @@
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
     </row>
-    <row r="24" ht="15.95" customHeight="1">
+    <row r="24" spans="1:10" ht="15.9" customHeight="1">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -1544,7 +2479,7 @@
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
     </row>
-    <row r="25" ht="15.95" customHeight="1">
+    <row r="25" spans="1:10" ht="15.9" customHeight="1">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -1556,7 +2491,7 @@
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
     </row>
-    <row r="26" ht="15.95" customHeight="1">
+    <row r="26" spans="1:10" ht="15.9" customHeight="1">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -1568,7 +2503,7 @@
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
     </row>
-    <row r="27" ht="15.95" customHeight="1">
+    <row r="27" spans="1:10" ht="15.9" customHeight="1">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -1580,7 +2515,7 @@
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
     </row>
-    <row r="28" ht="15.95" customHeight="1">
+    <row r="28" spans="1:10" ht="15.9" customHeight="1">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -1592,7 +2527,7 @@
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
     </row>
-    <row r="29" ht="15.95" customHeight="1">
+    <row r="29" spans="1:10" ht="15.9" customHeight="1">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -1604,7 +2539,7 @@
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
     </row>
-    <row r="30" ht="15.95" customHeight="1">
+    <row r="30" spans="1:10" ht="15.9" customHeight="1">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -1616,7 +2551,7 @@
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
     </row>
-    <row r="31" ht="15.95" customHeight="1">
+    <row r="31" spans="1:10" ht="15.9" customHeight="1">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -1628,7 +2563,7 @@
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
     </row>
-    <row r="32" ht="15.95" customHeight="1">
+    <row r="32" spans="1:10" ht="15.9" customHeight="1">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -1640,7 +2575,7 @@
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
     </row>
-    <row r="33" ht="15.95" customHeight="1">
+    <row r="33" spans="1:10" ht="15.9" customHeight="1">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -1652,7 +2587,7 @@
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
     </row>
-    <row r="34" ht="15.95" customHeight="1">
+    <row r="34" spans="1:10" ht="15.9" customHeight="1">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -1664,7 +2599,7 @@
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
     </row>
-    <row r="35" ht="15.95" customHeight="1">
+    <row r="35" spans="1:10" ht="15.9" customHeight="1">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -1676,7 +2611,7 @@
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
     </row>
-    <row r="36" ht="15.95" customHeight="1">
+    <row r="36" spans="1:10" ht="15.9" customHeight="1">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -1688,7 +2623,7 @@
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
     </row>
-    <row r="37" ht="15.95" customHeight="1">
+    <row r="37" spans="1:10" ht="15.9" customHeight="1">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -1700,7 +2635,7 @@
       <c r="I37" s="3"/>
       <c r="J37" s="3"/>
     </row>
-    <row r="38" ht="15.95" customHeight="1">
+    <row r="38" spans="1:10" ht="15.9" customHeight="1">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -1712,7 +2647,7 @@
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
     </row>
-    <row r="39" ht="15.95" customHeight="1">
+    <row r="39" spans="1:10" ht="15.9" customHeight="1">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -1724,7 +2659,7 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
     </row>
-    <row r="40" ht="15.95" customHeight="1">
+    <row r="40" spans="1:10" ht="15.9" customHeight="1">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -1736,7 +2671,7 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
     </row>
-    <row r="41" ht="15.95" customHeight="1">
+    <row r="41" spans="1:10" ht="15.9" customHeight="1">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -1748,7 +2683,7 @@
       <c r="I41" s="3"/>
       <c r="J41" s="3"/>
     </row>
-    <row r="42" ht="15.95" customHeight="1">
+    <row r="42" spans="1:10" ht="15.9" customHeight="1">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -1760,7 +2695,7 @@
       <c r="I42" s="3"/>
       <c r="J42" s="3"/>
     </row>
-    <row r="43" ht="15.95" customHeight="1">
+    <row r="43" spans="1:10" ht="15.9" customHeight="1">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -1772,7 +2707,7 @@
       <c r="I43" s="3"/>
       <c r="J43" s="3"/>
     </row>
-    <row r="44" ht="15.95" customHeight="1">
+    <row r="44" spans="1:10" ht="15.9" customHeight="1">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -1784,7 +2719,7 @@
       <c r="I44" s="3"/>
       <c r="J44" s="3"/>
     </row>
-    <row r="45" ht="15.95" customHeight="1">
+    <row r="45" spans="1:10" ht="15.9" customHeight="1">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -1796,7 +2731,7 @@
       <c r="I45" s="3"/>
       <c r="J45" s="3"/>
     </row>
-    <row r="46" ht="15.95" customHeight="1">
+    <row r="46" spans="1:10" ht="15.9" customHeight="1">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -1808,7 +2743,7 @@
       <c r="I46" s="3"/>
       <c r="J46" s="3"/>
     </row>
-    <row r="47" ht="15.95" customHeight="1">
+    <row r="47" spans="1:10" ht="15.9" customHeight="1">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
@@ -1820,7 +2755,7 @@
       <c r="I47" s="3"/>
       <c r="J47" s="3"/>
     </row>
-    <row r="48" ht="15.95" customHeight="1">
+    <row r="48" spans="1:10" ht="15.9" customHeight="1">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -1832,7 +2767,7 @@
       <c r="I48" s="3"/>
       <c r="J48" s="3"/>
     </row>
-    <row r="49" ht="15.95" customHeight="1">
+    <row r="49" spans="1:10" ht="15.9" customHeight="1">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
@@ -1844,7 +2779,7 @@
       <c r="I49" s="3"/>
       <c r="J49" s="3"/>
     </row>
-    <row r="50" ht="15.95" customHeight="1">
+    <row r="50" spans="1:10" ht="15.9" customHeight="1">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -1856,7 +2791,7 @@
       <c r="I50" s="3"/>
       <c r="J50" s="3"/>
     </row>
-    <row r="51" ht="15.95" customHeight="1">
+    <row r="51" spans="1:10" ht="15.9" customHeight="1">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -1868,7 +2803,7 @@
       <c r="I51" s="3"/>
       <c r="J51" s="3"/>
     </row>
-    <row r="52" ht="15.95" customHeight="1">
+    <row r="52" spans="1:10" ht="15.9" customHeight="1">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -1880,7 +2815,7 @@
       <c r="I52" s="3"/>
       <c r="J52" s="3"/>
     </row>
-    <row r="53" ht="15.95" customHeight="1">
+    <row r="53" spans="1:10" ht="15.9" customHeight="1">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -1892,7 +2827,7 @@
       <c r="I53" s="3"/>
       <c r="J53" s="3"/>
     </row>
-    <row r="54" ht="15.95" customHeight="1">
+    <row r="54" spans="1:10" ht="15.9" customHeight="1">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -1904,7 +2839,7 @@
       <c r="I54" s="3"/>
       <c r="J54" s="3"/>
     </row>
-    <row r="55" ht="15.95" customHeight="1">
+    <row r="55" spans="1:10" ht="15.9" customHeight="1">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -1916,7 +2851,7 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
     </row>
-    <row r="56" ht="15.95" customHeight="1">
+    <row r="56" spans="1:10" ht="15.9" customHeight="1">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -1928,7 +2863,7 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
     </row>
-    <row r="57" ht="15.95" customHeight="1">
+    <row r="57" spans="1:10" ht="15.9" customHeight="1">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -1940,7 +2875,7 @@
       <c r="I57" s="3"/>
       <c r="J57" s="3"/>
     </row>
-    <row r="58" ht="15.95" customHeight="1">
+    <row r="58" spans="1:10" ht="15.9" customHeight="1">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -1952,7 +2887,7 @@
       <c r="I58" s="3"/>
       <c r="J58" s="3"/>
     </row>
-    <row r="59" ht="15.95" customHeight="1">
+    <row r="59" spans="1:10" ht="15.9" customHeight="1">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -1964,7 +2899,7 @@
       <c r="I59" s="3"/>
       <c r="J59" s="3"/>
     </row>
-    <row r="60" ht="15.95" customHeight="1">
+    <row r="60" spans="1:10" ht="15.9" customHeight="1">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -1976,7 +2911,7 @@
       <c r="I60" s="3"/>
       <c r="J60" s="3"/>
     </row>
-    <row r="61" ht="15.95" customHeight="1">
+    <row r="61" spans="1:10" ht="15.9" customHeight="1">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -1988,7 +2923,7 @@
       <c r="I61" s="3"/>
       <c r="J61" s="3"/>
     </row>
-    <row r="62" ht="15.95" customHeight="1">
+    <row r="62" spans="1:10" ht="15.9" customHeight="1">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -2001,10 +2936,15 @@
       <c r="J62" s="3"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511806" footer="0.511806"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180599999999998" footer="0.51180599999999998"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
+  <legacyDrawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>